--- a/UG_data_analysis/outputs/main/NoIndividual/group4Interaction_LC.xlsx
+++ b/UG_data_analysis/outputs/main/NoIndividual/group4Interaction_LC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\ownCloud\Papers\Pittsburgh\ug_context\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LAB/Suicide_UG/UG_data_analysis/outputs/main/NoIndividual/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B624938E-B9AE-664E-BD58-F307AF84E75D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group4Interaction" sheetId="1" r:id="rId1"/>
@@ -203,7 +204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24">
     <font>
       <sz val="12"/>
@@ -751,19 +752,19 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -839,7 +840,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD0D67C9-FD0B-D94F-A023-E9C774DFB04D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD0D67C9-FD0B-D94F-A023-E9C774DFB04D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,7 +900,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7D7772D-C0B7-A64E-887C-A15A6AA74F92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D7772D-C0B7-A64E-887C-A15A6AA74F92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -959,7 +960,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B622EEF9-2990-8444-85A5-7BCF050D51F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B622EEF9-2990-8444-85A5-7BCF050D51F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,16 +1285,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A1:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="51.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1775,45 +1776,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="F2:R31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:R30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F2" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="51.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.875" style="2"/>
+    <col min="1" max="1" width="51.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="2"/>
     <col min="4" max="4" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="2"/>
-    <col min="6" max="6" width="51.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="10.875" style="2"/>
-    <col min="11" max="11" width="7.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="37.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="51.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10.83203125" style="2"/>
+    <col min="11" max="11" width="7.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="37.33203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="1.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="25.625" style="2" customWidth="1"/>
-    <col min="15" max="18" width="10.875" style="3"/>
-    <col min="19" max="16384" width="10.875" style="2"/>
+    <col min="14" max="14" width="25.6640625" style="2" customWidth="1"/>
+    <col min="15" max="18" width="10.83203125" style="3"/>
+    <col min="19" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="6:18">
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1825,16 +1826,16 @@
       <c r="N3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="16">
         <v>0.88</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="16">
         <v>0.24</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="16">
         <v>3.7</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1844,16 +1845,16 @@
       <c r="N4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="16">
         <v>-1.81</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="16">
         <v>0.23</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="16">
         <v>-7.85</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1863,16 +1864,16 @@
       <c r="N5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="16">
         <v>2.1</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="16">
         <v>0.09</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="16">
         <v>23.44</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1882,16 +1883,16 @@
       <c r="N6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="16">
         <v>0.03</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="16">
         <v>0.06</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="16">
         <v>0.42</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="16">
         <v>0.67</v>
       </c>
     </row>
@@ -1901,16 +1902,16 @@
       <c r="N7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="16">
         <v>0</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="16">
         <v>0.47</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="16">
         <v>-0.01</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="16">
         <v>0.99</v>
       </c>
     </row>
@@ -1920,16 +1921,16 @@
       <c r="N8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="16">
         <v>0.66</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="16">
         <v>0.49</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="16">
         <v>1.36</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="16">
         <v>0.17</v>
       </c>
     </row>
@@ -1940,16 +1941,16 @@
       <c r="N9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="16">
         <v>0.36</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="16">
         <v>0.49</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="16">
         <v>0.73</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="16">
         <v>0.47</v>
       </c>
     </row>
@@ -1959,29 +1960,29 @@
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
     </row>
     <row r="11" spans="6:18">
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="10" t="s">
         <v>47</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="16">
         <v>0.85</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="16">
         <v>0.38</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="16">
         <v>2.27</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="16">
         <v>0.02</v>
       </c>
     </row>
@@ -1991,16 +1992,16 @@
       <c r="N12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="16">
         <v>0.21</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="16">
         <v>0.36</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="16">
         <v>0.59</v>
       </c>
-      <c r="R12" s="10">
+      <c r="R12" s="16">
         <v>0.56000000000000005</v>
       </c>
     </row>
@@ -2010,16 +2011,16 @@
       <c r="N13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="16">
         <v>0.08</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="16">
         <v>0.09</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q13" s="16">
         <v>0.95</v>
       </c>
-      <c r="R13" s="10">
+      <c r="R13" s="16">
         <v>0.34</v>
       </c>
     </row>
@@ -2029,37 +2030,37 @@
       <c r="N14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="16">
         <v>-0.15</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="16">
         <v>0.08</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="16">
         <v>-1.91</v>
       </c>
-      <c r="R14" s="10">
+      <c r="R14" s="16">
         <v>0.06</v>
       </c>
     </row>
     <row r="15" spans="6:18">
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="10" t="s">
         <v>49</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="16">
         <v>-0.16</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="16">
         <v>0.38</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="16">
         <v>-0.43</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R15" s="16">
         <v>0.67</v>
       </c>
     </row>
@@ -2069,16 +2070,16 @@
       <c r="N16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="16">
         <v>0</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="16">
         <v>0.37</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="16">
         <v>0.01</v>
       </c>
-      <c r="R16" s="10">
+      <c r="R16" s="16">
         <v>0.99</v>
       </c>
     </row>
@@ -2088,16 +2089,16 @@
       <c r="N17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="16">
         <v>-0.17</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="16">
         <v>0.09</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="16">
         <v>-1.97</v>
       </c>
-      <c r="R17" s="10">
+      <c r="R17" s="16">
         <v>0.05</v>
       </c>
     </row>
@@ -2107,56 +2108,56 @@
       <c r="N18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="16">
         <v>-0.09</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="16">
         <v>0.08</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="16">
         <v>-1.1200000000000001</v>
       </c>
-      <c r="R18" s="10">
+      <c r="R18" s="16">
         <v>0.26</v>
       </c>
     </row>
     <row r="19" spans="12:18">
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="10" t="s">
         <v>48</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="16">
         <v>0.72</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="16">
         <v>0.39</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="16">
         <v>1.85</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R19" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="20" spans="12:18">
-      <c r="L20" s="12"/>
+      <c r="L20" s="11"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20" s="16">
         <v>-0.06</v>
       </c>
-      <c r="P20" s="10">
+      <c r="P20" s="16">
         <v>0.37</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="16">
         <v>-0.17</v>
       </c>
-      <c r="R20" s="10">
+      <c r="R20" s="16">
         <v>0.86</v>
       </c>
     </row>
@@ -2166,16 +2167,16 @@
       <c r="N21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="16">
         <v>0.12</v>
       </c>
-      <c r="P21" s="10">
+      <c r="P21" s="16">
         <v>0.09</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q21" s="16">
         <v>1.31</v>
       </c>
-      <c r="R21" s="10">
+      <c r="R21" s="16">
         <v>0.19</v>
       </c>
     </row>
@@ -2185,16 +2186,16 @@
       <c r="N22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="16">
         <v>-0.06</v>
       </c>
-      <c r="P22" s="10">
+      <c r="P22" s="16">
         <v>0.08</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q22" s="16">
         <v>-0.75</v>
       </c>
-      <c r="R22" s="10">
+      <c r="R22" s="16">
         <v>0.45</v>
       </c>
     </row>
@@ -2206,16 +2207,16 @@
       <c r="N23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="16">
         <v>-1.27</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23" s="16">
         <v>0.1</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="16">
         <v>-13.05</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2225,16 +2226,16 @@
       <c r="N24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="O24" s="10">
+      <c r="O24" s="16">
         <v>-1.25</v>
       </c>
-      <c r="P24" s="10">
+      <c r="P24" s="16">
         <v>0.09</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="Q24" s="16">
         <v>-13.96</v>
       </c>
-      <c r="R24" s="10">
+      <c r="R24" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2246,16 +2247,16 @@
       <c r="N25" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O25" s="16">
         <v>0.08</v>
       </c>
-      <c r="P25" s="10">
+      <c r="P25" s="16">
         <v>0.08</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="16">
         <v>1.01</v>
       </c>
-      <c r="R25" s="10">
+      <c r="R25" s="16">
         <v>0.31</v>
       </c>
     </row>
@@ -2265,16 +2266,16 @@
       <c r="N26" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="O26" s="10">
+      <c r="O26" s="16">
         <v>0.19</v>
       </c>
-      <c r="P26" s="10">
+      <c r="P26" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="Q26" s="16">
         <v>2.77</v>
       </c>
-      <c r="R26" s="10">
+      <c r="R26" s="16">
         <v>0.01</v>
       </c>
     </row>
@@ -2286,16 +2287,16 @@
       <c r="N27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O27" s="16">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="P27" s="10">
+      <c r="P27" s="16">
         <v>0.06</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="Q27" s="16">
         <v>-2.25</v>
       </c>
-      <c r="R27" s="10">
+      <c r="R27" s="16">
         <v>0.02</v>
       </c>
     </row>
@@ -2307,16 +2308,16 @@
       <c r="N28" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O28" s="10">
+      <c r="O28" s="16">
         <v>0.15</v>
       </c>
-      <c r="P28" s="10">
+      <c r="P28" s="16">
         <v>0.09</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="Q28" s="16">
         <v>1.82</v>
       </c>
-      <c r="R28" s="10">
+      <c r="R28" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -2326,39 +2327,39 @@
       <c r="N29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="O29" s="10">
+      <c r="O29" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P29" s="10">
+      <c r="P29" s="16">
         <v>0.08</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="Q29" s="16">
         <v>0.91</v>
       </c>
-      <c r="R29" s="10">
+      <c r="R29" s="16">
         <v>0.36</v>
       </c>
     </row>
-    <row r="30" spans="12:18" ht="19.5" thickBot="1">
-      <c r="L30" s="13" t="s">
+    <row r="30" spans="12:18" ht="20" thickBot="1">
+      <c r="L30" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="15">
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="17">
         <v>1.46</v>
       </c>
-      <c r="P30" s="15">
+      <c r="P30" s="17">
         <v>0.31</v>
       </c>
-      <c r="Q30" s="15">
+      <c r="Q30" s="17">
         <v>4.74</v>
       </c>
-      <c r="R30" s="15">
+      <c r="R30" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="12:18" ht="19.5" thickTop="1"/>
+    <row r="31" spans="12:18" ht="20" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2367,23 +2368,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D16:AN22"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="13" max="13" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="45.875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="45.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="16" spans="4:40" ht="18.75">
+    <row r="16" spans="4:40" ht="19">
       <c r="D16" s="2"/>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
@@ -2422,7 +2423,7 @@
       <c r="AM16" s="4"/>
       <c r="AN16" s="4"/>
     </row>
-    <row r="17" spans="4:40" ht="18.75">
+    <row r="17" spans="4:40" ht="19">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2461,7 +2462,7 @@
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
     </row>
-    <row r="18" spans="4:40" ht="19.5">
+    <row r="18" spans="4:40" ht="19">
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2500,7 +2501,7 @@
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
     </row>
-    <row r="19" spans="4:40" ht="19.5">
+    <row r="19" spans="4:40" ht="19">
       <c r="D19" s="6"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2539,7 +2540,7 @@
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
     </row>
-    <row r="20" spans="4:40" ht="19.5">
+    <row r="20" spans="4:40" ht="19">
       <c r="D20" s="6"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2578,7 +2579,7 @@
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
     </row>
-    <row r="21" spans="4:40" ht="19.5">
+    <row r="21" spans="4:40" ht="19">
       <c r="D21" s="6"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2617,7 +2618,7 @@
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
     </row>
-    <row r="22" spans="4:40" ht="19.5">
+    <row r="22" spans="4:40" ht="19">
       <c r="D22" s="6"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>

--- a/UG_data_analysis/outputs/main/NoIndividual/group4Interaction_LC.xlsx
+++ b/UG_data_analysis/outputs/main/NoIndividual/group4Interaction_LC.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LAB/Suicide_UG/UG_data_analysis/outputs/main/NoIndividual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B624938E-B9AE-664E-BD58-F307AF84E75D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6907EED-5CD1-1F42-87B2-8C4E78A5E08D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="group4Interaction" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="group4Interaction" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
   <si>
     <t>Estimate</t>
   </si>
@@ -205,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -352,13 +352,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times Roman"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times Roman"/>
@@ -736,7 +729,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -744,27 +737,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -942,50 +931,61 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1473200</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1803400</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B622EEF9-2990-8444-85A5-7BCF050D51F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FB7766-300D-1F4A-96E2-242646E48B4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="825500" y="609600"/>
-          <a:ext cx="10883900" cy="8966200"/>
+          <a:off x="20129500" y="3378200"/>
+          <a:ext cx="65" cy="172227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1285,502 +1285,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="F2:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A1:E28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>1.46</v>
-      </c>
-      <c r="C2">
-        <v>0.31</v>
-      </c>
-      <c r="D2">
-        <v>4.74</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.88</v>
-      </c>
-      <c r="C3">
-        <v>0.24</v>
-      </c>
-      <c r="D3">
-        <v>3.7</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>-1.81</v>
-      </c>
-      <c r="C4">
-        <v>0.23</v>
-      </c>
-      <c r="D4">
-        <v>-7.85</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>2.1</v>
-      </c>
-      <c r="C5">
-        <v>0.09</v>
-      </c>
-      <c r="D5">
-        <v>23.44</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.03</v>
-      </c>
-      <c r="C6">
-        <v>0.06</v>
-      </c>
-      <c r="D6">
-        <v>0.42</v>
-      </c>
-      <c r="E6">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0.47</v>
-      </c>
-      <c r="D7">
-        <v>-0.01</v>
-      </c>
-      <c r="E7">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0.66</v>
-      </c>
-      <c r="C8">
-        <v>0.49</v>
-      </c>
-      <c r="D8">
-        <v>1.36</v>
-      </c>
-      <c r="E8">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>0.36</v>
-      </c>
-      <c r="C9">
-        <v>0.49</v>
-      </c>
-      <c r="D9">
-        <v>0.73</v>
-      </c>
-      <c r="E9">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>-1.27</v>
-      </c>
-      <c r="C10">
-        <v>0.1</v>
-      </c>
-      <c r="D10">
-        <v>-13.05</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>-1.25</v>
-      </c>
-      <c r="C11">
-        <v>0.09</v>
-      </c>
-      <c r="D11">
-        <v>-13.96</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0.08</v>
-      </c>
-      <c r="C12">
-        <v>0.08</v>
-      </c>
-      <c r="D12">
-        <v>1.01</v>
-      </c>
-      <c r="E12">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0.19</v>
-      </c>
-      <c r="C13">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D13">
-        <v>2.77</v>
-      </c>
-      <c r="E13">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="C14">
-        <v>0.06</v>
-      </c>
-      <c r="D14">
-        <v>-2.25</v>
-      </c>
-      <c r="E14">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>0.85</v>
-      </c>
-      <c r="C15">
-        <v>0.38</v>
-      </c>
-      <c r="D15">
-        <v>2.27</v>
-      </c>
-      <c r="E15">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>0.21</v>
-      </c>
-      <c r="C16">
-        <v>0.36</v>
-      </c>
-      <c r="D16">
-        <v>0.59</v>
-      </c>
-      <c r="E16">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>-0.16</v>
-      </c>
-      <c r="C17">
-        <v>0.38</v>
-      </c>
-      <c r="D17">
-        <v>-0.43</v>
-      </c>
-      <c r="E17">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0.37</v>
-      </c>
-      <c r="D18">
-        <v>0.01</v>
-      </c>
-      <c r="E18">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0.72</v>
-      </c>
-      <c r="C19">
-        <v>0.39</v>
-      </c>
-      <c r="D19">
-        <v>1.85</v>
-      </c>
-      <c r="E19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>-0.06</v>
-      </c>
-      <c r="C20">
-        <v>0.37</v>
-      </c>
-      <c r="D20">
-        <v>-0.17</v>
-      </c>
-      <c r="E20">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>0.08</v>
-      </c>
-      <c r="C21">
-        <v>0.09</v>
-      </c>
-      <c r="D21">
-        <v>0.95</v>
-      </c>
-      <c r="E21">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>-0.17</v>
-      </c>
-      <c r="C22">
-        <v>0.09</v>
-      </c>
-      <c r="D22">
-        <v>-1.97</v>
-      </c>
-      <c r="E22">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>0.12</v>
-      </c>
-      <c r="C23">
-        <v>0.09</v>
-      </c>
-      <c r="D23">
-        <v>1.31</v>
-      </c>
-      <c r="E23">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>-0.15</v>
-      </c>
-      <c r="C24">
-        <v>0.08</v>
-      </c>
-      <c r="D24">
-        <v>-1.91</v>
-      </c>
-      <c r="E24">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>-0.09</v>
-      </c>
-      <c r="C25">
-        <v>0.08</v>
-      </c>
-      <c r="D25">
-        <v>-1.1200000000000001</v>
-      </c>
-      <c r="E25">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>-0.06</v>
-      </c>
-      <c r="C26">
-        <v>0.08</v>
-      </c>
-      <c r="D26">
-        <v>-0.75</v>
-      </c>
-      <c r="E26">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>0.15</v>
-      </c>
-      <c r="C27">
-        <v>0.09</v>
-      </c>
-      <c r="D27">
-        <v>1.82</v>
-      </c>
-      <c r="E27">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C28">
-        <v>0.08</v>
-      </c>
-      <c r="D28">
-        <v>0.91</v>
-      </c>
-      <c r="E28">
-        <v>0.36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="F2:R31"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F2" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="179" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
@@ -1795,571 +1304,486 @@
     <col min="12" max="12" width="37.33203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="1.5" style="2" customWidth="1"/>
     <col min="14" max="14" width="25.6640625" style="2" customWidth="1"/>
-    <col min="15" max="18" width="10.83203125" style="3"/>
-    <col min="19" max="16384" width="10.83203125" style="2"/>
+    <col min="15" max="17" width="10.83203125" style="3"/>
+    <col min="18" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:18">
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="14" t="s">
+    <row r="2" spans="6:17">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="6:17">
+      <c r="L3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="14">
+        <v>3.7</v>
+      </c>
+      <c r="P3" s="14">
+        <v>0.24</v>
+      </c>
+      <c r="Q3" s="14">
         <v>0</v>
       </c>
-      <c r="P2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="6:18">
-      <c r="L3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9" t="s">
+    </row>
+    <row r="4" spans="6:17">
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="14">
+        <v>-7.85</v>
+      </c>
+      <c r="P4" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="6:17">
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="14">
+        <v>23.44</v>
+      </c>
+      <c r="P5" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="6:17">
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0.42</v>
+      </c>
+      <c r="P6" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="7" spans="6:17">
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="14">
+        <v>-0.01</v>
+      </c>
+      <c r="P7" s="14">
+        <v>0.47</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="8" spans="6:17">
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="14">
+        <v>1.36</v>
+      </c>
+      <c r="P8" s="14">
+        <v>0.49</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="9" spans="6:17">
+      <c r="F9" s="1"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.73</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0.49</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="10" spans="6:17">
+      <c r="L10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="6:17">
+      <c r="L11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="14">
+        <v>2.27</v>
+      </c>
+      <c r="P11" s="14">
+        <v>0.38</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="6:17">
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0.59</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0.36</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="6:17">
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="P13" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="14" spans="6:17">
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="14">
+        <v>-1.91</v>
+      </c>
+      <c r="P14" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="15" spans="6:17">
+      <c r="L15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="16">
-        <v>0.88</v>
-      </c>
-      <c r="P3" s="16">
-        <v>0.24</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>3.7</v>
-      </c>
-      <c r="R3" s="16">
+      <c r="O15" s="14">
+        <v>-0.43</v>
+      </c>
+      <c r="P15" s="14">
+        <v>0.38</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="16" spans="6:17">
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="P16" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="17" spans="12:17">
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="14">
+        <v>-1.97</v>
+      </c>
+      <c r="P17" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="12:17">
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="14">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="P18" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="19" spans="12:17">
+      <c r="L19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="14">
+        <v>1.85</v>
+      </c>
+      <c r="P19" s="14">
+        <v>0.39</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="12:17">
+      <c r="L20" s="9"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="14">
+        <v>-0.17</v>
+      </c>
+      <c r="P20" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="21" spans="12:17">
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" s="14">
+        <v>1.31</v>
+      </c>
+      <c r="P21" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="22" spans="12:17">
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O22" s="14">
+        <v>-0.75</v>
+      </c>
+      <c r="P22" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="23" spans="12:17">
+      <c r="L23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="14">
+        <v>-13.05</v>
+      </c>
+      <c r="P23" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="Q23" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="6:18">
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="16">
-        <v>-1.81</v>
-      </c>
-      <c r="P4" s="16">
-        <v>0.23</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>-7.85</v>
-      </c>
-      <c r="R4" s="16">
+    <row r="24" spans="12:17">
+      <c r="L24" s="6"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O24" s="14">
+        <v>-13.96</v>
+      </c>
+      <c r="P24" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="Q24" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="6:18">
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="16">
-        <v>2.1</v>
-      </c>
-      <c r="P5" s="16">
+    <row r="25" spans="12:17">
+      <c r="L25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O25" s="14">
+        <v>1.01</v>
+      </c>
+      <c r="P25" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="26" spans="12:17">
+      <c r="L26" s="6"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O26" s="14">
+        <v>2.77</v>
+      </c>
+      <c r="P26" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="12:17">
+      <c r="L27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O27" s="14">
+        <v>-2.25</v>
+      </c>
+      <c r="P27" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="12:17">
+      <c r="L28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O28" s="14">
+        <v>1.82</v>
+      </c>
+      <c r="P28" s="14">
         <v>0.09</v>
       </c>
-      <c r="Q5" s="16">
-        <v>23.44</v>
-      </c>
-      <c r="R5" s="16">
+      <c r="Q28" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="12:17">
+      <c r="L29" s="6"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" s="14">
+        <v>0.91</v>
+      </c>
+      <c r="P29" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="30" spans="12:17" ht="20" thickBot="1">
+      <c r="L30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="15">
+        <v>4.74</v>
+      </c>
+      <c r="P30" s="15">
+        <v>0.31</v>
+      </c>
+      <c r="Q30" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="6:18">
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="16">
-        <v>0.03</v>
-      </c>
-      <c r="P6" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>0.42</v>
-      </c>
-      <c r="R6" s="16">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="7" spans="6:18">
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0</v>
-      </c>
-      <c r="P7" s="16">
-        <v>0.47</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>-0.01</v>
-      </c>
-      <c r="R7" s="16">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="8" spans="6:18">
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="16">
-        <v>0.66</v>
-      </c>
-      <c r="P8" s="16">
-        <v>0.49</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>1.36</v>
-      </c>
-      <c r="R8" s="16">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="9" spans="6:18">
-      <c r="F9" s="1"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="16">
-        <v>0.36</v>
-      </c>
-      <c r="P9" s="16">
-        <v>0.49</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>0.73</v>
-      </c>
-      <c r="R9" s="16">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="10" spans="6:18">
-      <c r="L10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-    </row>
-    <row r="11" spans="6:18">
-      <c r="L11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" s="16">
-        <v>0.85</v>
-      </c>
-      <c r="P11" s="16">
-        <v>0.38</v>
-      </c>
-      <c r="Q11" s="16">
-        <v>2.27</v>
-      </c>
-      <c r="R11" s="16">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="12" spans="6:18">
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="16">
-        <v>0.21</v>
-      </c>
-      <c r="P12" s="16">
-        <v>0.36</v>
-      </c>
-      <c r="Q12" s="16">
-        <v>0.59</v>
-      </c>
-      <c r="R12" s="16">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="6:18">
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="P13" s="16">
-        <v>0.09</v>
-      </c>
-      <c r="Q13" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="R13" s="16">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="14" spans="6:18">
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O14" s="16">
-        <v>-0.15</v>
-      </c>
-      <c r="P14" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="Q14" s="16">
-        <v>-1.91</v>
-      </c>
-      <c r="R14" s="16">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="15" spans="6:18">
-      <c r="L15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="16">
-        <v>-0.16</v>
-      </c>
-      <c r="P15" s="16">
-        <v>0.38</v>
-      </c>
-      <c r="Q15" s="16">
-        <v>-0.43</v>
-      </c>
-      <c r="R15" s="16">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="16" spans="6:18">
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="16">
-        <v>0</v>
-      </c>
-      <c r="P16" s="16">
-        <v>0.37</v>
-      </c>
-      <c r="Q16" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="R16" s="16">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="17" spans="12:18">
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O17" s="16">
-        <v>-0.17</v>
-      </c>
-      <c r="P17" s="16">
-        <v>0.09</v>
-      </c>
-      <c r="Q17" s="16">
-        <v>-1.97</v>
-      </c>
-      <c r="R17" s="16">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="12:18">
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O18" s="16">
-        <v>-0.09</v>
-      </c>
-      <c r="P18" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="Q18" s="16">
-        <v>-1.1200000000000001</v>
-      </c>
-      <c r="R18" s="16">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="19" spans="12:18">
-      <c r="L19" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="16">
-        <v>0.72</v>
-      </c>
-      <c r="P19" s="16">
-        <v>0.39</v>
-      </c>
-      <c r="Q19" s="16">
-        <v>1.85</v>
-      </c>
-      <c r="R19" s="16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="12:18">
-      <c r="L20" s="11"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O20" s="16">
-        <v>-0.06</v>
-      </c>
-      <c r="P20" s="16">
-        <v>0.37</v>
-      </c>
-      <c r="Q20" s="16">
-        <v>-0.17</v>
-      </c>
-      <c r="R20" s="16">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="21" spans="12:18">
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O21" s="16">
-        <v>0.12</v>
-      </c>
-      <c r="P21" s="16">
-        <v>0.09</v>
-      </c>
-      <c r="Q21" s="16">
-        <v>1.31</v>
-      </c>
-      <c r="R21" s="16">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="22" spans="12:18">
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O22" s="16">
-        <v>-0.06</v>
-      </c>
-      <c r="P22" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="Q22" s="16">
-        <v>-0.75</v>
-      </c>
-      <c r="R22" s="16">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="23" spans="12:18">
-      <c r="L23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O23" s="16">
-        <v>-1.27</v>
-      </c>
-      <c r="P23" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="Q23" s="16">
-        <v>-13.05</v>
-      </c>
-      <c r="R23" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="12:18">
-      <c r="L24" s="8"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="O24" s="16">
-        <v>-1.25</v>
-      </c>
-      <c r="P24" s="16">
-        <v>0.09</v>
-      </c>
-      <c r="Q24" s="16">
-        <v>-13.96</v>
-      </c>
-      <c r="R24" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="12:18">
-      <c r="L25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O25" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="P25" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="Q25" s="16">
-        <v>1.01</v>
-      </c>
-      <c r="R25" s="16">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="26" spans="12:18">
-      <c r="L26" s="8"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="O26" s="16">
-        <v>0.19</v>
-      </c>
-      <c r="P26" s="16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q26" s="16">
-        <v>2.77</v>
-      </c>
-      <c r="R26" s="16">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="27" spans="12:18">
-      <c r="L27" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O27" s="16">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="P27" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="Q27" s="16">
-        <v>-2.25</v>
-      </c>
-      <c r="R27" s="16">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="28" spans="12:18">
-      <c r="L28" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O28" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="P28" s="16">
-        <v>0.09</v>
-      </c>
-      <c r="Q28" s="16">
-        <v>1.82</v>
-      </c>
-      <c r="R28" s="16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="12:18">
-      <c r="L29" s="8"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O29" s="16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P29" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="Q29" s="16">
-        <v>0.91</v>
-      </c>
-      <c r="R29" s="16">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="30" spans="12:18" ht="20" thickBot="1">
-      <c r="L30" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="17">
-        <v>1.46</v>
-      </c>
-      <c r="P30" s="17">
-        <v>0.31</v>
-      </c>
-      <c r="Q30" s="17">
-        <v>4.74</v>
-      </c>
-      <c r="R30" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="12:18" ht="20" thickTop="1"/>
+    <row r="31" spans="12:17" ht="20" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2367,12 +1791,503 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1.46</v>
+      </c>
+      <c r="C2">
+        <v>0.31</v>
+      </c>
+      <c r="D2">
+        <v>4.74</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.88</v>
+      </c>
+      <c r="C3">
+        <v>0.24</v>
+      </c>
+      <c r="D3">
+        <v>3.7</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>-1.81</v>
+      </c>
+      <c r="C4">
+        <v>0.23</v>
+      </c>
+      <c r="D4">
+        <v>-7.85</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2.1</v>
+      </c>
+      <c r="C5">
+        <v>0.09</v>
+      </c>
+      <c r="D5">
+        <v>23.44</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.03</v>
+      </c>
+      <c r="C6">
+        <v>0.06</v>
+      </c>
+      <c r="D6">
+        <v>0.42</v>
+      </c>
+      <c r="E6">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.47</v>
+      </c>
+      <c r="D7">
+        <v>-0.01</v>
+      </c>
+      <c r="E7">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.66</v>
+      </c>
+      <c r="C8">
+        <v>0.49</v>
+      </c>
+      <c r="D8">
+        <v>1.36</v>
+      </c>
+      <c r="E8">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0.36</v>
+      </c>
+      <c r="C9">
+        <v>0.49</v>
+      </c>
+      <c r="D9">
+        <v>0.73</v>
+      </c>
+      <c r="E9">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>-1.27</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+      <c r="D10">
+        <v>-13.05</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>-1.25</v>
+      </c>
+      <c r="C11">
+        <v>0.09</v>
+      </c>
+      <c r="D11">
+        <v>-13.96</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0.08</v>
+      </c>
+      <c r="C12">
+        <v>0.08</v>
+      </c>
+      <c r="D12">
+        <v>1.01</v>
+      </c>
+      <c r="E12">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0.19</v>
+      </c>
+      <c r="C13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D13">
+        <v>2.77</v>
+      </c>
+      <c r="E13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.06</v>
+      </c>
+      <c r="D14">
+        <v>-2.25</v>
+      </c>
+      <c r="E14">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0.85</v>
+      </c>
+      <c r="C15">
+        <v>0.38</v>
+      </c>
+      <c r="D15">
+        <v>2.27</v>
+      </c>
+      <c r="E15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0.21</v>
+      </c>
+      <c r="C16">
+        <v>0.36</v>
+      </c>
+      <c r="D16">
+        <v>0.59</v>
+      </c>
+      <c r="E16">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>-0.16</v>
+      </c>
+      <c r="C17">
+        <v>0.38</v>
+      </c>
+      <c r="D17">
+        <v>-0.43</v>
+      </c>
+      <c r="E17">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.37</v>
+      </c>
+      <c r="D18">
+        <v>0.01</v>
+      </c>
+      <c r="E18">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0.72</v>
+      </c>
+      <c r="C19">
+        <v>0.39</v>
+      </c>
+      <c r="D19">
+        <v>1.85</v>
+      </c>
+      <c r="E19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>-0.06</v>
+      </c>
+      <c r="C20">
+        <v>0.37</v>
+      </c>
+      <c r="D20">
+        <v>-0.17</v>
+      </c>
+      <c r="E20">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0.08</v>
+      </c>
+      <c r="C21">
+        <v>0.09</v>
+      </c>
+      <c r="D21">
+        <v>0.95</v>
+      </c>
+      <c r="E21">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>-0.17</v>
+      </c>
+      <c r="C22">
+        <v>0.09</v>
+      </c>
+      <c r="D22">
+        <v>-1.97</v>
+      </c>
+      <c r="E22">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>0.12</v>
+      </c>
+      <c r="C23">
+        <v>0.09</v>
+      </c>
+      <c r="D23">
+        <v>1.31</v>
+      </c>
+      <c r="E23">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>-0.15</v>
+      </c>
+      <c r="C24">
+        <v>0.08</v>
+      </c>
+      <c r="D24">
+        <v>-1.91</v>
+      </c>
+      <c r="E24">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>-0.09</v>
+      </c>
+      <c r="C25">
+        <v>0.08</v>
+      </c>
+      <c r="D25">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="E25">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>-0.06</v>
+      </c>
+      <c r="C26">
+        <v>0.08</v>
+      </c>
+      <c r="D26">
+        <v>-0.75</v>
+      </c>
+      <c r="E26">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>0.15</v>
+      </c>
+      <c r="C27">
+        <v>0.09</v>
+      </c>
+      <c r="D27">
+        <v>1.82</v>
+      </c>
+      <c r="E27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.08</v>
+      </c>
+      <c r="D28">
+        <v>0.91</v>
+      </c>
+      <c r="E28">
+        <v>0.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D16:AN22"/>
+  <dimension ref="B4:AN34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2384,12 +2299,238 @@
     <col min="37" max="37" width="45.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="16" spans="4:40" ht="19">
-      <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+    <row r="4" spans="2:40" ht="19">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:40">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:40">
+      <c r="B6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.88</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.24</v>
+      </c>
+      <c r="G6" s="14">
+        <v>3.7</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:40">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="14">
+        <v>-1.81</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="G7" s="14">
+        <v>-7.85</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="G8" s="14">
+        <v>23.44</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0.42</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:40">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0.47</v>
+      </c>
+      <c r="G10" s="14">
+        <v>-0.01</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:40">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.66</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.49</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1.36</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.36</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.49</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.73</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:40">
+      <c r="B13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="2:40">
+      <c r="B14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0.38</v>
+      </c>
+      <c r="G14" s="14">
+        <v>2.27</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="2:40">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0.21</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0.36</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.59</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40" ht="19">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.34</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -2423,12 +2564,24 @@
       <c r="AM16" s="4"/>
       <c r="AN16" s="4"/>
     </row>
-    <row r="17" spans="4:40" ht="19">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+    <row r="17" spans="2:40" ht="19">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="14">
+        <v>-0.15</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="G17" s="14">
+        <v>-1.91</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0.06</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -2462,12 +2615,26 @@
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
     </row>
-    <row r="18" spans="4:40" ht="19">
-      <c r="D18" s="5"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+    <row r="18" spans="2:40" ht="19">
+      <c r="B18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="14">
+        <v>-0.16</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0.38</v>
+      </c>
+      <c r="G18" s="14">
+        <v>-0.43</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0.67</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -2501,12 +2668,24 @@
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
     </row>
-    <row r="19" spans="4:40" ht="19">
-      <c r="D19" s="6"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+    <row r="19" spans="2:40" ht="19">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="H19" s="14">
+        <v>0.99</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -2540,12 +2719,24 @@
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
     </row>
-    <row r="20" spans="4:40" ht="19">
-      <c r="D20" s="6"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+    <row r="20" spans="2:40" ht="19">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="14">
+        <v>-0.17</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="G20" s="14">
+        <v>-1.97</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.05</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -2579,12 +2770,24 @@
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
     </row>
-    <row r="21" spans="4:40" ht="19">
-      <c r="D21" s="6"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+    <row r="21" spans="2:40" ht="19">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="14">
+        <v>-0.09</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="G21" s="14">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="H21" s="14">
+        <v>0.26</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -2618,12 +2821,26 @@
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
     </row>
-    <row r="22" spans="4:40" ht="19">
-      <c r="D22" s="6"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+    <row r="22" spans="2:40" ht="19">
+      <c r="B22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0.72</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0.39</v>
+      </c>
+      <c r="G22" s="14">
+        <v>1.85</v>
+      </c>
+      <c r="H22" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -2657,6 +2874,232 @@
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
     </row>
+    <row r="23" spans="2:40">
+      <c r="B23" s="9"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="14">
+        <v>-0.06</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="G23" s="14">
+        <v>-0.17</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:40">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="G24" s="14">
+        <v>1.31</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:40">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="14">
+        <v>-0.06</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="G25" s="14">
+        <v>-0.75</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:40">
+      <c r="B26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="14">
+        <v>-1.27</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="14">
+        <v>-13.05</v>
+      </c>
+      <c r="H26" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:40">
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="14">
+        <v>-1.25</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="G27" s="14">
+        <v>-13.96</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:40">
+      <c r="B28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="G28" s="14">
+        <v>1.01</v>
+      </c>
+      <c r="H28" s="14">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:40">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0.19</v>
+      </c>
+      <c r="F29" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G29" s="14">
+        <v>2.77</v>
+      </c>
+      <c r="H29" s="14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="2:40">
+      <c r="B30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="14">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="F30" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="G30" s="14">
+        <v>-2.25</v>
+      </c>
+      <c r="H30" s="14">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="31" spans="2:40">
+      <c r="B31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="F31" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="G31" s="14">
+        <v>1.82</v>
+      </c>
+      <c r="H31" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:40">
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F32" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0.91</v>
+      </c>
+      <c r="H32" s="14">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="17" thickBot="1">
+      <c r="B33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="15">
+        <v>1.46</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0.31</v>
+      </c>
+      <c r="G33" s="15">
+        <v>4.74</v>
+      </c>
+      <c r="H33" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="20" thickTop="1">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/UG_data_analysis/outputs/main/NoIndividual/group4Interaction_LC.xlsx
+++ b/UG_data_analysis/outputs/main/NoIndividual/group4Interaction_LC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LAB/Suicide_UG/UG_data_analysis/outputs/main/NoIndividual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6907EED-5CD1-1F42-87B2-8C4E78A5E08D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D39CD72-9DA0-034D-8413-4DE7911978D2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="800" windowWidth="25600" windowHeight="15200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group4Interaction" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="60">
   <si>
     <t>Estimate</t>
   </si>
@@ -199,12 +199,18 @@
   </si>
   <si>
     <t>Empathy × Stake</t>
+  </si>
+  <si>
+    <t>&lt; .001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="23">
     <font>
       <sz val="12"/>
@@ -729,7 +735,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -754,6 +760,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1286,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="F2:Q31"/>
+  <dimension ref="F2:W31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="179" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView showGridLines="0" topLeftCell="J1" zoomScale="89" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
@@ -1305,10 +1320,12 @@
     <col min="13" max="13" width="1.5" style="2" customWidth="1"/>
     <col min="14" max="14" width="25.6640625" style="2" customWidth="1"/>
     <col min="15" max="17" width="10.83203125" style="3"/>
-    <col min="18" max="16384" width="10.83203125" style="2"/>
+    <col min="18" max="18" width="10.83203125" style="2"/>
+    <col min="19" max="19" width="51.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:17">
+    <row r="2" spans="6:23">
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="12" t="s">
@@ -1323,8 +1340,13 @@
       <c r="Q2" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="6:17">
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+    </row>
+    <row r="3" spans="6:23">
       <c r="L3" s="6" t="s">
         <v>34</v>
       </c>
@@ -1338,11 +1360,16 @@
       <c r="P3" s="14">
         <v>0.24</v>
       </c>
-      <c r="Q3" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="6:17">
+      <c r="Q3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+    </row>
+    <row r="4" spans="6:23">
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7" t="s">
@@ -1354,11 +1381,16 @@
       <c r="P4" s="14">
         <v>0.23</v>
       </c>
-      <c r="Q4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="6:17">
+      <c r="Q4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+    </row>
+    <row r="5" spans="6:23">
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7" t="s">
@@ -1370,11 +1402,16 @@
       <c r="P5" s="14">
         <v>0.09</v>
       </c>
-      <c r="Q5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="6:17">
+      <c r="Q5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+    </row>
+    <row r="6" spans="6:23">
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7" t="s">
@@ -1386,11 +1423,16 @@
       <c r="P6" s="14">
         <v>0.06</v>
       </c>
-      <c r="Q6" s="14">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="7" spans="6:17">
+      <c r="Q6" s="18">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+    </row>
+    <row r="7" spans="6:23">
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7" t="s">
@@ -1402,11 +1444,16 @@
       <c r="P7" s="14">
         <v>0.47</v>
       </c>
-      <c r="Q7" s="14">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="8" spans="6:17">
+      <c r="Q7" s="16">
+        <v>0.995</v>
+      </c>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+    </row>
+    <row r="8" spans="6:23">
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7" t="s">
@@ -1418,11 +1465,16 @@
       <c r="P8" s="14">
         <v>0.49</v>
       </c>
-      <c r="Q8" s="14">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="9" spans="6:17">
+      <c r="Q8" s="16">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+    </row>
+    <row r="9" spans="6:23">
       <c r="F9" s="1"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -1435,11 +1487,16 @@
       <c r="P9" s="14">
         <v>0.49</v>
       </c>
-      <c r="Q9" s="14">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="10" spans="6:17">
+      <c r="Q9" s="16">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+    </row>
+    <row r="10" spans="6:23">
       <c r="L10" s="6" t="s">
         <v>46</v>
       </c>
@@ -1447,9 +1504,14 @@
       <c r="N10" s="7"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-    </row>
-    <row r="11" spans="6:17">
+      <c r="Q10" s="16"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+    </row>
+    <row r="11" spans="6:23">
       <c r="L11" s="8" t="s">
         <v>47</v>
       </c>
@@ -1463,11 +1525,16 @@
       <c r="P11" s="14">
         <v>0.38</v>
       </c>
-      <c r="Q11" s="14">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="12" spans="6:17">
+      <c r="Q11" s="16">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+    </row>
+    <row r="12" spans="6:23">
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7" t="s">
@@ -1479,11 +1546,11 @@
       <c r="P12" s="14">
         <v>0.36</v>
       </c>
-      <c r="Q12" s="14">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="6:17">
+      <c r="Q12" s="16">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="6:23">
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7" t="s">
@@ -1495,11 +1562,11 @@
       <c r="P13" s="14">
         <v>0.09</v>
       </c>
-      <c r="Q13" s="14">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="14" spans="6:17">
+      <c r="Q13" s="16">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="6:23">
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7" t="s">
@@ -1511,11 +1578,11 @@
       <c r="P14" s="14">
         <v>0.08</v>
       </c>
-      <c r="Q14" s="14">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="15" spans="6:17">
+      <c r="Q14" s="16">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="6:23">
       <c r="L15" s="8" t="s">
         <v>49</v>
       </c>
@@ -1529,11 +1596,11 @@
       <c r="P15" s="14">
         <v>0.38</v>
       </c>
-      <c r="Q15" s="14">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="16" spans="6:17">
+      <c r="Q15" s="16">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="6:23">
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7" t="s">
@@ -1545,11 +1612,16 @@
       <c r="P16" s="14">
         <v>0.37</v>
       </c>
-      <c r="Q16" s="14">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="17" spans="12:17">
+      <c r="Q16" s="16">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+    </row>
+    <row r="17" spans="12:23">
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7" t="s">
@@ -1561,11 +1633,16 @@
       <c r="P17" s="14">
         <v>0.09</v>
       </c>
-      <c r="Q17" s="14">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="12:17">
+      <c r="Q17" s="16">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+    </row>
+    <row r="18" spans="12:23">
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7" t="s">
@@ -1577,11 +1654,16 @@
       <c r="P18" s="14">
         <v>0.08</v>
       </c>
-      <c r="Q18" s="14">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="19" spans="12:17">
+      <c r="Q18" s="16">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+    </row>
+    <row r="19" spans="12:23">
       <c r="L19" s="8" t="s">
         <v>48</v>
       </c>
@@ -1595,11 +1677,16 @@
       <c r="P19" s="14">
         <v>0.39</v>
       </c>
-      <c r="Q19" s="14">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="12:17">
+      <c r="Q19" s="16">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+    </row>
+    <row r="20" spans="12:23">
       <c r="L20" s="9"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7" t="s">
@@ -1611,11 +1698,16 @@
       <c r="P20" s="14">
         <v>0.37</v>
       </c>
-      <c r="Q20" s="14">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="21" spans="12:17">
+      <c r="Q20" s="16">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+    </row>
+    <row r="21" spans="12:23">
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7" t="s">
@@ -1627,11 +1719,16 @@
       <c r="P21" s="14">
         <v>0.09</v>
       </c>
-      <c r="Q21" s="14">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="22" spans="12:17">
+      <c r="Q21" s="16">
+        <v>0.191</v>
+      </c>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+    </row>
+    <row r="22" spans="12:23">
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7" t="s">
@@ -1643,11 +1740,16 @@
       <c r="P22" s="14">
         <v>0.08</v>
       </c>
-      <c r="Q22" s="14">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="23" spans="12:17">
+      <c r="Q22" s="16">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+    </row>
+    <row r="23" spans="12:23">
       <c r="L23" s="6" t="s">
         <v>51</v>
       </c>
@@ -1661,11 +1763,16 @@
       <c r="P23" s="14">
         <v>0.1</v>
       </c>
-      <c r="Q23" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="12:17">
+      <c r="Q23" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+    </row>
+    <row r="24" spans="12:23">
       <c r="L24" s="6"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7" t="s">
@@ -1677,11 +1784,16 @@
       <c r="P24" s="14">
         <v>0.09</v>
       </c>
-      <c r="Q24" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="12:17">
+      <c r="Q24" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+    </row>
+    <row r="25" spans="12:23">
       <c r="L25" s="6" t="s">
         <v>52</v>
       </c>
@@ -1695,11 +1807,16 @@
       <c r="P25" s="14">
         <v>0.08</v>
       </c>
-      <c r="Q25" s="14">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="26" spans="12:17">
+      <c r="Q25" s="16">
+        <v>0.313</v>
+      </c>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+    </row>
+    <row r="26" spans="12:23">
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7" t="s">
@@ -1711,11 +1828,16 @@
       <c r="P26" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q26" s="14">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="27" spans="12:17">
+      <c r="Q26" s="16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+    </row>
+    <row r="27" spans="12:23">
       <c r="L27" s="6" t="s">
         <v>50</v>
       </c>
@@ -1729,11 +1851,16 @@
       <c r="P27" s="14">
         <v>0.06</v>
       </c>
-      <c r="Q27" s="14">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="28" spans="12:17">
+      <c r="Q27" s="16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+    </row>
+    <row r="28" spans="12:23">
       <c r="L28" s="6" t="s">
         <v>53</v>
       </c>
@@ -1747,11 +1874,16 @@
       <c r="P28" s="14">
         <v>0.09</v>
       </c>
-      <c r="Q28" s="14">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="12:17">
+      <c r="Q28" s="16">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+    </row>
+    <row r="29" spans="12:23">
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7" t="s">
@@ -1763,11 +1895,16 @@
       <c r="P29" s="14">
         <v>0.08</v>
       </c>
-      <c r="Q29" s="14">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="30" spans="12:17" ht="20" thickBot="1">
+      <c r="Q29" s="16">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+    </row>
+    <row r="30" spans="12:23" ht="20" thickBot="1">
       <c r="L30" s="10" t="s">
         <v>35</v>
       </c>
@@ -1779,11 +1916,11 @@
       <c r="P30" s="15">
         <v>0.31</v>
       </c>
-      <c r="Q30" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="12:17" ht="20" thickTop="1"/>
+      <c r="Q30" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="12:23" ht="20" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1796,7 +1933,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1823,13 +1960,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.46</v>
+        <v>1.456</v>
       </c>
       <c r="C2">
-        <v>0.31</v>
+        <v>0.307</v>
       </c>
       <c r="D2">
-        <v>4.74</v>
+        <v>4.742</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1840,13 +1977,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.88</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="C3">
-        <v>0.24</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="D3">
-        <v>3.7</v>
+        <v>3.7029999999999998</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1857,13 +1994,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-1.81</v>
+        <v>-1.8140000000000001</v>
       </c>
       <c r="C4">
-        <v>0.23</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="D4">
-        <v>-7.85</v>
+        <v>-7.8460000000000001</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1874,13 +2011,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>2.1</v>
+        <v>2.0990000000000002</v>
       </c>
       <c r="C5">
         <v>0.09</v>
       </c>
       <c r="D5">
-        <v>23.44</v>
+        <v>23.440999999999999</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1891,16 +2028,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.03</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C6">
-        <v>0.06</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D6">
         <v>0.42</v>
       </c>
       <c r="E6">
-        <v>0.67</v>
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1908,16 +2045,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="C7">
-        <v>0.47</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="D7">
-        <v>-0.01</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="E7">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1928,13 +2065,13 @@
         <v>0.66</v>
       </c>
       <c r="C8">
-        <v>0.49</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="D8">
         <v>1.36</v>
       </c>
       <c r="E8">
-        <v>0.17</v>
+        <v>0.17399999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1942,16 +2079,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.36</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="C9">
-        <v>0.49</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D9">
-        <v>0.73</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="E9">
-        <v>0.47</v>
+        <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1959,10 +2096,10 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>-1.27</v>
+        <v>-1.2749999999999999</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="D10">
         <v>-13.05</v>
@@ -1976,13 +2113,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-1.25</v>
+        <v>-1.2450000000000001</v>
       </c>
       <c r="C11">
-        <v>0.09</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="D11">
-        <v>-13.96</v>
+        <v>-13.957000000000001</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1993,16 +2130,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.08</v>
+        <v>7.8E-2</v>
       </c>
       <c r="C12">
-        <v>0.08</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D12">
-        <v>1.01</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="E12">
-        <v>0.31</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2010,16 +2147,16 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.19</v>
+        <v>0.191</v>
       </c>
       <c r="C13">
-        <v>7.0000000000000007E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D13">
-        <v>2.77</v>
+        <v>2.7690000000000001</v>
       </c>
       <c r="E13">
-        <v>0.01</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2027,16 +2164,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-0.14000000000000001</v>
+        <v>-0.13600000000000001</v>
       </c>
       <c r="C14">
         <v>0.06</v>
       </c>
       <c r="D14">
-        <v>-2.25</v>
+        <v>-2.2469999999999999</v>
       </c>
       <c r="E14">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2047,13 +2184,13 @@
         <v>0.85</v>
       </c>
       <c r="C15">
-        <v>0.38</v>
+        <v>0.375</v>
       </c>
       <c r="D15">
-        <v>2.27</v>
+        <v>2.266</v>
       </c>
       <c r="E15">
-        <v>0.02</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2064,13 +2201,13 @@
         <v>0.21</v>
       </c>
       <c r="C16">
-        <v>0.36</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="D16">
-        <v>0.59</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="E16">
-        <v>0.56000000000000005</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2078,16 +2215,16 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>-0.16</v>
+        <v>-0.16500000000000001</v>
       </c>
       <c r="C17">
         <v>0.38</v>
       </c>
       <c r="D17">
-        <v>-0.43</v>
+        <v>-0.433</v>
       </c>
       <c r="E17">
-        <v>0.67</v>
+        <v>0.66500000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2095,16 +2232,16 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C18">
-        <v>0.37</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="D18">
-        <v>0.01</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E18">
-        <v>0.99</v>
+        <v>0.99399999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2112,16 +2249,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.72</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="C19">
-        <v>0.39</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="D19">
-        <v>1.85</v>
+        <v>1.845</v>
       </c>
       <c r="E19">
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2129,16 +2266,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>-0.06</v>
+        <v>-6.4000000000000001E-2</v>
       </c>
       <c r="C20">
         <v>0.37</v>
       </c>
       <c r="D20">
-        <v>-0.17</v>
+        <v>-0.17299999999999999</v>
       </c>
       <c r="E20">
-        <v>0.86</v>
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2146,16 +2283,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.08</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C21">
-        <v>0.09</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="D21">
-        <v>0.95</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="E21">
-        <v>0.34</v>
+        <v>0.34399999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2163,16 +2300,16 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>-0.17</v>
+        <v>-0.16900000000000001</v>
       </c>
       <c r="C22">
-        <v>0.09</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D22">
-        <v>-1.97</v>
+        <v>-1.9710000000000001</v>
       </c>
       <c r="E22">
-        <v>0.05</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2180,16 +2317,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.12</v>
+        <v>0.121</v>
       </c>
       <c r="C23">
-        <v>0.09</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D23">
-        <v>1.31</v>
+        <v>1.3089999999999999</v>
       </c>
       <c r="E23">
-        <v>0.19</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2197,16 +2334,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>-0.15</v>
+        <v>-0.14699999999999999</v>
       </c>
       <c r="C24">
-        <v>0.08</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D24">
-        <v>-1.91</v>
+        <v>-1.9079999999999999</v>
       </c>
       <c r="E24">
-        <v>0.06</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2214,16 +2351,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>-0.09</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="C25">
-        <v>0.08</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D25">
-        <v>-1.1200000000000001</v>
+        <v>-1.119</v>
       </c>
       <c r="E25">
-        <v>0.26</v>
+        <v>0.26300000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2237,10 +2374,10 @@
         <v>0.08</v>
       </c>
       <c r="D26">
-        <v>-0.75</v>
+        <v>-0.748</v>
       </c>
       <c r="E26">
-        <v>0.45</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2248,16 +2385,16 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.15</v>
+        <v>0.154</v>
       </c>
       <c r="C27">
-        <v>0.09</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D27">
-        <v>1.82</v>
+        <v>1.8149999999999999</v>
       </c>
       <c r="E27">
-        <v>7.0000000000000007E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2265,16 +2402,16 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>7.0000000000000007E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="C28">
-        <v>0.08</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D28">
-        <v>0.91</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="E28">
-        <v>0.36</v>
+        <v>0.36199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2286,8 +2423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:AN34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2344,8 +2481,8 @@
       <c r="G6" s="14">
         <v>3.7</v>
       </c>
-      <c r="H6" s="14">
-        <v>0</v>
+      <c r="H6" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:40">
@@ -2363,8 +2500,8 @@
       <c r="G7" s="14">
         <v>-7.85</v>
       </c>
-      <c r="H7" s="14">
-        <v>0</v>
+      <c r="H7" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:40">
@@ -2382,8 +2519,8 @@
       <c r="G8" s="14">
         <v>23.44</v>
       </c>
-      <c r="H8" s="14">
-        <v>0</v>
+      <c r="H8" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:40">
@@ -2401,8 +2538,8 @@
       <c r="G9" s="14">
         <v>0.42</v>
       </c>
-      <c r="H9" s="14">
-        <v>0.67</v>
+      <c r="H9" s="18">
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="10" spans="2:40">
@@ -2420,8 +2557,8 @@
       <c r="G10" s="14">
         <v>-0.01</v>
       </c>
-      <c r="H10" s="14">
-        <v>0.99</v>
+      <c r="H10" s="16">
+        <v>0.995</v>
       </c>
     </row>
     <row r="11" spans="2:40">
@@ -2439,8 +2576,8 @@
       <c r="G11" s="14">
         <v>1.36</v>
       </c>
-      <c r="H11" s="14">
-        <v>0.17</v>
+      <c r="H11" s="16">
+        <v>0.17399999999999999</v>
       </c>
     </row>
     <row r="12" spans="2:40">
@@ -2458,8 +2595,8 @@
       <c r="G12" s="14">
         <v>0.73</v>
       </c>
-      <c r="H12" s="14">
-        <v>0.47</v>
+      <c r="H12" s="16">
+        <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="13" spans="2:40">
@@ -2471,7 +2608,7 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="2:40">
       <c r="B14" s="8" t="s">
@@ -2490,8 +2627,8 @@
       <c r="G14" s="14">
         <v>2.27</v>
       </c>
-      <c r="H14" s="14">
-        <v>0.02</v>
+      <c r="H14" s="16">
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="15" spans="2:40">
@@ -2509,8 +2646,8 @@
       <c r="G15" s="14">
         <v>0.59</v>
       </c>
-      <c r="H15" s="14">
-        <v>0.56000000000000005</v>
+      <c r="H15" s="16">
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="16" spans="2:40" ht="19">
@@ -2528,8 +2665,8 @@
       <c r="G16" s="14">
         <v>0.95</v>
       </c>
-      <c r="H16" s="14">
-        <v>0.34</v>
+      <c r="H16" s="16">
+        <v>0.34399999999999997</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2579,8 +2716,8 @@
       <c r="G17" s="14">
         <v>-1.91</v>
       </c>
-      <c r="H17" s="14">
-        <v>0.06</v>
+      <c r="H17" s="16">
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2632,8 +2769,8 @@
       <c r="G18" s="14">
         <v>-0.43</v>
       </c>
-      <c r="H18" s="14">
-        <v>0.67</v>
+      <c r="H18" s="16">
+        <v>0.66500000000000004</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2683,8 +2820,8 @@
       <c r="G19" s="14">
         <v>0.01</v>
       </c>
-      <c r="H19" s="14">
-        <v>0.99</v>
+      <c r="H19" s="16">
+        <v>0.99399999999999999</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -2734,8 +2871,8 @@
       <c r="G20" s="14">
         <v>-1.97</v>
       </c>
-      <c r="H20" s="14">
-        <v>0.05</v>
+      <c r="H20" s="16">
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -2785,8 +2922,8 @@
       <c r="G21" s="14">
         <v>-1.1200000000000001</v>
       </c>
-      <c r="H21" s="14">
-        <v>0.26</v>
+      <c r="H21" s="16">
+        <v>0.26300000000000001</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -2838,8 +2975,8 @@
       <c r="G22" s="14">
         <v>1.85</v>
       </c>
-      <c r="H22" s="14">
-        <v>7.0000000000000007E-2</v>
+      <c r="H22" s="16">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -2889,8 +3026,8 @@
       <c r="G23" s="14">
         <v>-0.17</v>
       </c>
-      <c r="H23" s="14">
-        <v>0.86</v>
+      <c r="H23" s="16">
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="24" spans="2:40">
@@ -2908,8 +3045,8 @@
       <c r="G24" s="14">
         <v>1.31</v>
       </c>
-      <c r="H24" s="14">
-        <v>0.19</v>
+      <c r="H24" s="16">
+        <v>0.191</v>
       </c>
     </row>
     <row r="25" spans="2:40">
@@ -2927,8 +3064,8 @@
       <c r="G25" s="14">
         <v>-0.75</v>
       </c>
-      <c r="H25" s="14">
-        <v>0.45</v>
+      <c r="H25" s="16">
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="26" spans="2:40">
@@ -2948,8 +3085,8 @@
       <c r="G26" s="14">
         <v>-13.05</v>
       </c>
-      <c r="H26" s="14">
-        <v>0</v>
+      <c r="H26" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:40">
@@ -2967,8 +3104,8 @@
       <c r="G27" s="14">
         <v>-13.96</v>
       </c>
-      <c r="H27" s="14">
-        <v>0</v>
+      <c r="H27" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:40">
@@ -2988,8 +3125,8 @@
       <c r="G28" s="14">
         <v>1.01</v>
       </c>
-      <c r="H28" s="14">
-        <v>0.31</v>
+      <c r="H28" s="16">
+        <v>0.313</v>
       </c>
     </row>
     <row r="29" spans="2:40">
@@ -3007,8 +3144,8 @@
       <c r="G29" s="14">
         <v>2.77</v>
       </c>
-      <c r="H29" s="14">
-        <v>0.01</v>
+      <c r="H29" s="16">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="30" spans="2:40">
@@ -3028,8 +3165,8 @@
       <c r="G30" s="14">
         <v>-2.25</v>
       </c>
-      <c r="H30" s="14">
-        <v>0.02</v>
+      <c r="H30" s="16">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="31" spans="2:40">
@@ -3049,8 +3186,8 @@
       <c r="G31" s="14">
         <v>1.82</v>
       </c>
-      <c r="H31" s="14">
-        <v>7.0000000000000007E-2</v>
+      <c r="H31" s="16">
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="32" spans="2:40">
@@ -3068,8 +3205,8 @@
       <c r="G32" s="14">
         <v>0.91</v>
       </c>
-      <c r="H32" s="14">
-        <v>0.36</v>
+      <c r="H32" s="16">
+        <v>0.36199999999999999</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="17" thickBot="1">
@@ -3087,8 +3224,8 @@
       <c r="G33" s="15">
         <v>4.74</v>
       </c>
-      <c r="H33" s="15">
-        <v>0</v>
+      <c r="H33" s="17" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="20" thickTop="1">
